--- a/medicine/Enfance/Myrtille_Bastard/Myrtille_Bastard.xlsx
+++ b/medicine/Enfance/Myrtille_Bastard/Myrtille_Bastard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrtille Bastard, née le 27 septembre 1985 à Dijon, est une auteure française de fantasy et fantastique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrtille Bastard est née et a vécu en Bourgogne. Elle a obtenu un diplôme d'études théâtrales au conservatoire d'art dramatique d'Avignon en 2006. Elle est comédienne. Elle a commencé à écrire en 2005, en premier lieu des pièces de théâtre. Elle est aussi harpiste et cinéaste.
 Elle vit en couple avec un comédien et réalisateur.
@@ -545,28 +559,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série « Âhni »
-Genèses - Livre I (2020), éditions Alter Real
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série « Âhni »</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Genèses - Livre I (2020), éditions Alter Real
 Genèses - Livre II (2020), éditions Alter Real
 Le Souffle de la déesse (2021), éditions Alter Real
-Les Enfants du Père (2021), éditions Alter Real
-Série « La Guilde du charivari »
-La Naissance de la Guilde (2022), éditions Lansdalls
-Le Dragon du gouffre sans retour (2023), éditions Lansdalls
-L'Ogre des bois sifflants (2023), éditions Lansdalls
-Le Cercle de fées (2024), éditions Lansdalls
-Série « Naïs, détective malgré elle »
-Disparition, vodka et macarons (2023), éditions Alter Real
-Série « Tryna Jones »
-Marques magiques (2024), éditions Alter Real[1]
-Romans indépendants
-Loba (2019), éditions Alter Real[2].
-Un chat, deux sapins et beaucoup de complications ! (2022), roman pour enfants, éditions Alter Real[3].
-Nouvelles
-Chez Lucius, Dieux, Lares et Génies, 2016, anthologie Antiqu'idées (éd. imaJn'ère)[4].
-Aqua Memoria, 2017, anthologie Au fil de l'eau (éd. imaJn'ère)[5].
-La Passeuse d’âmes, 2019[6].</t>
+Les Enfants du Père (2021), éditions Alter Real</t>
         </is>
       </c>
     </row>
@@ -591,12 +597,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Musique</t>
+          <t>Publications littéraires</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CD de harpe celtique, Matkalla, 2012, produit par la compagnie Afikamaya[réf. nécessaire].</t>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série « La Guilde du charivari »</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Naissance de la Guilde (2022), éditions Lansdalls
+Le Dragon du gouffre sans retour (2023), éditions Lansdalls
+L'Ogre des bois sifflants (2023), éditions Lansdalls
+Le Cercle de fées (2024), éditions Lansdalls</t>
         </is>
       </c>
     </row>
@@ -621,13 +640,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cinéaste</t>
+          <t>Publications littéraires</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mariama sorti en 2008 avec Éric Tellène et produit par Les Films du projectionniste
-Ses Yeux sorti en 2012 et produit par La Porte d'à côté (en tant que scénariste et réalisatrice)</t>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série « Naïs, détective malgré elle »</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Disparition, vodka et macarons (2023), éditions Alter Real</t>
         </is>
       </c>
     </row>
@@ -652,10 +680,196 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Publications littéraires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série « Tryna Jones »</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marques magiques (2024), éditions Alter Real</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications littéraires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Loba (2019), éditions Alter Real.
+Un chat, deux sapins et beaucoup de complications ! (2022), roman pour enfants, éditions Alter Real.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications littéraires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Chez Lucius, Dieux, Lares et Génies, 2016, anthologie Antiqu'idées (éd. imaJn'ère).
+Aqua Memoria, 2017, anthologie Au fil de l'eau (éd. imaJn'ère).
+La Passeuse d’âmes, 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CD de harpe celtique, Matkalla, 2012, produit par la compagnie Afikamaya[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cinéaste</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mariama sorti en 2008 avec Éric Tellène et produit par Les Films du projectionniste
+Ses Yeux sorti en 2012 et produit par La Porte d'à côté (en tant que scénariste et réalisatrice)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtille_Bastard</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix ImaJn'ère d'Anger (lauréate en 2016, 2017 et 2019)[réf. nécessaire]
 « Award Alter Real du roman le plus drôle 2023 » pour Un chat, deux sapins et beaucoup de complications ![réf. nécessaire]
